--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -460,6 +460,12 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="1">
+        <v>43809.95774305556</v>
+      </c>
+      <c r="B20" s="0">
+        <v>272</v>
+      </c>
       <c r="D20" s="0">
         <v>18</v>
       </c>
@@ -496,7 +502,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -474,6 +474,12 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="1">
+        <v>43809.97224537037</v>
+      </c>
+      <c r="B21" s="0">
+        <v>271</v>
+      </c>
       <c r="D21" s="0">
         <v>19</v>
       </c>
@@ -510,7 +516,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -488,6 +488,12 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="1">
+        <v>43809.986134259256</v>
+      </c>
+      <c r="B22" s="0">
+        <v>269</v>
+      </c>
       <c r="D22" s="0">
         <v>20</v>
       </c>
@@ -516,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -502,6 +502,12 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="1">
+        <v>43810.00001157408</v>
+      </c>
+      <c r="B23" s="0">
+        <v>268</v>
+      </c>
       <c r="D23" s="0">
         <v>21</v>
       </c>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -246,7 +246,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -516,6 +516,12 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="1">
+        <v>43810.083344907405</v>
+      </c>
+      <c r="B24" s="0">
+        <v>267</v>
+      </c>
       <c r="D24" s="0">
         <v>22</v>
       </c>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -344,7 +344,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -530,6 +530,12 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="1">
+        <v>43810.37501157408</v>
+      </c>
+      <c r="B25" s="0">
+        <v>266</v>
+      </c>
       <c r="D25" s="0">
         <v>23</v>
       </c>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -344,7 +344,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -541,6 +541,14 @@
       </c>
       <c r="E25" s="0">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>43810.38890046296</v>
+      </c>
+      <c r="B26" s="0">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,7 +358,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -549,6 +549,14 @@
       </c>
       <c r="B26" s="0">
         <v>265</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>43810.44445601852</v>
+      </c>
+      <c r="B27" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +372,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -557,6 +557,14 @@
       </c>
       <c r="B27" s="0">
         <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>43810.45835648148</v>
+      </c>
+      <c r="B28" s="0">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -565,6 +565,14 @@
       </c>
       <c r="B28" s="0">
         <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43810.611134259256</v>
+      </c>
+      <c r="B29" s="0">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -573,6 +573,14 @@
       </c>
       <c r="B29" s="0">
         <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>43810.8055787037</v>
+      </c>
+      <c r="B30" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -581,6 +581,14 @@
       </c>
       <c r="B30" s="0">
         <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>43810.81946759259</v>
+      </c>
+      <c r="B31" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -589,6 +589,14 @@
       </c>
       <c r="B31" s="0">
         <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>43810.833344907405</v>
+      </c>
+      <c r="B32" s="0">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -597,6 +597,14 @@
       </c>
       <c r="B32" s="0">
         <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>43810.847233796296</v>
+      </c>
+      <c r="B33" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -605,6 +605,14 @@
       </c>
       <c r="B33" s="0">
         <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>43810.86115740741</v>
+      </c>
+      <c r="B34" s="0">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +512,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -613,6 +613,14 @@
       </c>
       <c r="B34" s="0">
         <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>43810.87501157408</v>
+      </c>
+      <c r="B35" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -621,6 +621,14 @@
       </c>
       <c r="B35" s="0">
         <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>43810.91668981482</v>
+      </c>
+      <c r="B36" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -629,6 +629,14 @@
       </c>
       <c r="B36" s="0">
         <v>253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>43810.9305787037</v>
+      </c>
+      <c r="B37" s="0">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -637,6 +637,14 @@
       </c>
       <c r="B37" s="0">
         <v>252</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>43810.95835648148</v>
+      </c>
+      <c r="B38" s="0">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -645,6 +645,14 @@
       </c>
       <c r="B38" s="0">
         <v>251</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>43810.972233796296</v>
+      </c>
+      <c r="B39" s="0">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -653,6 +653,14 @@
       </c>
       <c r="B39" s="0">
         <v>249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>43810.986134259256</v>
+      </c>
+      <c r="B40" s="0">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -661,6 +661,14 @@
       </c>
       <c r="B40" s="0">
         <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>43811.000023148146</v>
+      </c>
+      <c r="B41" s="0">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,7 +316,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -669,6 +669,14 @@
       </c>
       <c r="B41" s="0">
         <v>245</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>43811.31945601852</v>
+      </c>
+      <c r="B42" s="0">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,7 +330,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -677,6 +677,14 @@
       </c>
       <c r="B42" s="0">
         <v>244</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>43811.333344907405</v>
+      </c>
+      <c r="B43" s="0">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +372,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -685,6 +685,14 @@
       </c>
       <c r="B43" s="0">
         <v>243</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>43811.45835648148</v>
+      </c>
+      <c r="B44" s="0">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +372,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -693,6 +693,14 @@
       </c>
       <c r="B44" s="0">
         <v>242</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>43811.486134259256</v>
+      </c>
+      <c r="B45" s="0">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -701,6 +701,14 @@
       </c>
       <c r="B45" s="0">
         <v>241</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>43811.51391203704</v>
+      </c>
+      <c r="B46" s="0">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -709,6 +709,14 @@
       </c>
       <c r="B46" s="0">
         <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>43811.52780092593</v>
+      </c>
+      <c r="B47" s="0">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -717,6 +717,14 @@
       </c>
       <c r="B47" s="0">
         <v>238</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>43811.53921296296</v>
+      </c>
+      <c r="B48" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -721,7 +721,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>43811.53921296296</v>
+        <v>43811.54056712963</v>
       </c>
       <c r="B48" s="0">
         <v>237</v>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -725,6 +725,14 @@
       </c>
       <c r="B48" s="0">
         <v>237</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>43811.54096064815</v>
+      </c>
+      <c r="B49" s="0">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -733,6 +733,14 @@
       </c>
       <c r="B49" s="0">
         <v>236</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>43811.5555787037</v>
+      </c>
+      <c r="B50" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -741,6 +741,14 @@
       </c>
       <c r="B50" s="0">
         <v>235</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>43811.611134259256</v>
+      </c>
+      <c r="B51" s="0">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -749,6 +749,14 @@
       </c>
       <c r="B51" s="0">
         <v>234</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>43811.79168981482</v>
+      </c>
+      <c r="B52" s="0">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -757,6 +757,14 @@
       </c>
       <c r="B52" s="0">
         <v>232</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>43811.83335648148</v>
+      </c>
+      <c r="B53" s="0">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -765,6 +765,14 @@
       </c>
       <c r="B53" s="0">
         <v>231</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>43811.861134259256</v>
+      </c>
+      <c r="B54" s="0">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -773,6 +773,14 @@
       </c>
       <c r="B54" s="0">
         <v>230</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>43811.9305787037</v>
+      </c>
+      <c r="B55" s="0">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -781,6 +781,14 @@
       </c>
       <c r="B55" s="0">
         <v>229</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>43811.97224537037</v>
+      </c>
+      <c r="B56" s="0">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -789,6 +789,14 @@
       </c>
       <c r="B56" s="0">
         <v>227</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>43812.000023148146</v>
+      </c>
+      <c r="B57" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -797,6 +797,14 @@
       </c>
       <c r="B57" s="0">
         <v>225</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>43812.01391203704</v>
+      </c>
+      <c r="B58" s="0">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -805,6 +805,14 @@
       </c>
       <c r="B58" s="0">
         <v>223</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>43812.02780092593</v>
+      </c>
+      <c r="B59" s="0">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -232,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -813,6 +813,14 @@
       </c>
       <c r="B59" s="0">
         <v>222</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>43812.04167824074</v>
+      </c>
+      <c r="B60" s="0">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -232,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -821,6 +821,14 @@
       </c>
       <c r="B60" s="0">
         <v>221</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>43812.06945601852</v>
+      </c>
+      <c r="B61" s="0">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,7 +316,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -829,6 +829,14 @@
       </c>
       <c r="B61" s="0">
         <v>220</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>43812.3055787037</v>
+      </c>
+      <c r="B62" s="0">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/monitor.xlsx
+++ b/monitor.xlsx
@@ -196,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,7 +316,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -837,6 +837,14 @@
       </c>
       <c r="B62" s="0">
         <v>219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>43812.31946759259</v>
+      </c>
+      <c r="B63" s="0">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
